--- a/Test Case 1.xlsx
+++ b/Test Case 1.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miazi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\miazi\gitTesting\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCFD9CAB-2D31-4A80-A730-F80D6D580952}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60905027-D3AC-4938-BD9A-F4DFDC598B95}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{48D408F5-8B5D-4C1C-8101-322E1AA38101}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="31">
   <si>
     <t>Spec ID</t>
   </si>
@@ -144,6 +144,9 @@
   <si>
     <t>User able to see google 
 maps, Spotify,youtube on HUD</t>
+  </si>
+  <si>
+    <t>ABC123456</t>
   </si>
 </sst>
 </file>
@@ -554,10 +557,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17FFA099-12A1-4A3F-9482-858A97561F3B}">
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -676,6 +679,11 @@
         <v>15</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
